--- a/1-Software Development Lifecycle/Forms/Retrospective Meeting F11.xlsx
+++ b/1-Software Development Lifecycle/Forms/Retrospective Meeting F11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayed.hawas\Downloads\3-12-2025\SW 2025\SW 2025\1-Software Development Lifecycle\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D408C8-463F-4DD6-8715-845B4F36392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2A156-478F-4665-9B64-35980EC2B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{85F7EF2E-896E-41BA-A464-1736C1EB5F92}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{85F7EF2E-896E-41BA-A464-1736C1EB5F92}"/>
   </bookViews>
   <sheets>
     <sheet name="F-SW-SD-11" sheetId="1" r:id="rId1"/>
@@ -258,19 +258,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -300,23 +312,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC193DDB-4C86-4CDD-B082-7C27D868B164}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,319 +729,319 @@
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="7" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1054,6 +1054,32 @@
     <row r="40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A29:H29"/>
@@ -1070,38 +1096,12 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;16Issue No.:(01)&amp;C&amp;16F-SW-SD/11&amp;R&amp;16Rev:0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;16Issue No.:(01)&amp;C&amp;16F-SW-SD/11&amp;R&amp;16Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
